--- a/website.scrapers.table.xlsx
+++ b/website.scrapers.table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсовая\DataScrapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E2AB7-48FB-4369-8F63-EB90FA28F942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B9065F-C853-4DEF-9D37-5902076465A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Website Title</t>
   </si>
@@ -166,6 +166,22 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>nationaltoday.com</t>
+  </si>
+  <si>
+    <t>Holidays and birsthdays - NationalToday</t>
+  </si>
+  <si>
+    <t>{
+    title: 'World Freedom Day',
+    excerpt: 'Let’s celebrate and savor our freedom as a fundamental human right.',
+    URL: 'https://nationaltoday.com/world-freedom-day/',
+    shares: '298 Shares',
+    imageURL: 'https://nationaltoday.com/wp-content/uploads/2021/06/shutterstock_621710960-min-640x514.jpg',
+    date: { day: 'Nov', date: '09' }
+  }</t>
   </si>
 </sst>
 </file>
@@ -238,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,6 +586,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
